--- a/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
+++ b/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
@@ -1,40 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiumsoft-my.sharepoint.com/personal/nataraj_g_indiumsoft_com/Documents/TMI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\OneDrive\Documents\GitHub\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B2E64D-D6BE-47F3-BDB8-1C290A5D246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4B6526-D914-4C4E-8E6F-87833F6104BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend_LMS" sheetId="1" r:id="rId1"/>
-    <sheet name="Backend_LMS" sheetId="2" r:id="rId2"/>
-    <sheet name="TMI Elixr Integ_LMS+Asse Eng" sheetId="3" r:id="rId3"/>
-    <sheet name="Assessment Engine" sheetId="4" r:id="rId4"/>
+    <sheet name="Reference" sheetId="5" r:id="rId2"/>
+    <sheet name="Backend_LMS" sheetId="2" r:id="rId3"/>
+    <sheet name="TMI Elixr Integ_LMS+Asse Eng" sheetId="3" r:id="rId4"/>
+    <sheet name="Assessment Engine" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>TASKS</t>
   </si>
@@ -78,9 +68,6 @@
     <t>Super Admin - Category, Sub-category</t>
   </si>
   <si>
-    <t>Create in Tools</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - category CRUD</t>
   </si>
   <si>
@@ -88,9 +75,6 @@
   </si>
   <si>
     <t>Super Admin - Certifications</t>
-  </si>
-  <si>
-    <t>Metrics Page</t>
   </si>
   <si>
     <t xml:space="preserve"> - view completion</t>
@@ -289,12 +273,36 @@
   <si>
     <t>Total Effort In mandays</t>
   </si>
+  <si>
+    <t>https://www.jotform.com/help/583-how-to-create-a-new-user-or-admin-on-enterprise-server</t>
+  </si>
+  <si>
+    <t>https://www.altium.com/documentation/altium-designer/altium-concord-pro-adding-users-roles?version=19.0</t>
+  </si>
+  <si>
+    <t>YTD</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Remove this</t>
+  </si>
+  <si>
+    <t>Wireframe Status</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Supported images/examples</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -464,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -479,7 +487,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,6 +537,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,372 +764,562 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.1796875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75">
+      <c r="C1" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75">
+      <c r="C8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75">
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75">
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75">
+      <c r="C19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75">
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75">
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="34" t="s">
-        <v>24</v>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="34" t="s">
-        <v>25</v>
+      <c r="C23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="34" t="s">
-        <v>26</v>
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="34" t="s">
-        <v>27</v>
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>6</v>
       </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="34" t="s">
-        <v>28</v>
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>6</v>
       </c>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="34" t="s">
-        <v>29</v>
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="34" t="s">
-        <v>30</v>
+      <c r="C28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="35" t="s">
-        <v>31</v>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75">
+      <c r="C30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="34" t="s">
-        <v>33</v>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="34" t="s">
+      <c r="C32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="34" t="s">
+      <c r="C33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="34" t="s">
-        <v>34</v>
+      <c r="C34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="34" t="s">
-        <v>35</v>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="12.75">
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="34" t="s">
-        <v>33</v>
+      <c r="C37" s="6"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="34" t="s">
+      <c r="C38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="34" t="s">
+      <c r="C39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="34" t="s">
-        <v>34</v>
+      <c r="C40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="35" t="s">
-        <v>35</v>
+      <c r="C41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="36" t="s">
-        <v>37</v>
+      <c r="C42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="B43" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="13">
         <f>SUM(B2:B43)</f>
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
   </sheetData>
@@ -1125,6 +1328,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334D3631-A95A-4DFF-A5FE-46B2A0B54873}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1135,13 +1363,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1149,145 +1377,145 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75">
+    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75">
+    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75">
+    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75">
-      <c r="A13" s="15" t="s">
-        <v>55</v>
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="13">
         <f>SUM(B2:B13)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75">
+    <row r="32" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" ht="12.75">
+    <row r="33" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="12.75">
+    <row r="34" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="12.75">
+    <row r="35" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="12.75">
+    <row r="36" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
   </sheetData>
@@ -1296,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA78758-DB31-47FF-B6DC-233881B4AC4F}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -1304,49 +1532,49 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="48.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69" customHeight="1">
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
-      <c r="B4" s="21" t="s">
-        <v>62</v>
+      <c r="B4" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="13">
         <f>SUM(C2:C3)</f>
@@ -1354,10 +1582,10 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="10"/>
     </row>
   </sheetData>
@@ -1366,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84239F86-5177-4A8D-858D-CFECA5B2F494}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -1374,209 +1602,209 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="106.140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="17.26953125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="106.1796875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="48.1796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="56" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="D2" s="26">
+        <v>7</v>
+      </c>
+      <c r="E2" s="26">
+        <v>7</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>4</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="27">
+      <c r="C3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="27">
+        <v>12</v>
+      </c>
+      <c r="E3" s="26">
+        <v>12</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26">
         <v>7</v>
       </c>
-      <c r="E2" s="27">
-        <v>7</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="140.25">
-      <c r="A3" s="27">
-        <v>4</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="28">
-        <v>12</v>
-      </c>
-      <c r="E3" s="27">
-        <v>12</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
-        <v>7</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="27">
+        <v>15</v>
+      </c>
+      <c r="E5" s="26">
+        <v>15</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="28">
-        <v>15</v>
-      </c>
-      <c r="E5" s="27">
-        <v>15</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="D6" s="26">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
+        <v>5</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="27">
-        <v>3</v>
-      </c>
-      <c r="E6" s="27">
-        <v>5</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="D7" s="27">
+        <v>20</v>
+      </c>
+      <c r="E7" s="26">
+        <v>20</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="28">
-        <v>20</v>
-      </c>
-      <c r="E7" s="27">
-        <v>20</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <f>SUM(D2:D7)</f>
         <v>57</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f>SUM(E2:E7)</f>
         <v>66</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="32"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
+++ b/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\OneDrive\Documents\GitHub\LMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I3228\Desktop\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4B6526-D914-4C4E-8E6F-87833F6104BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7AAA8-D989-42AA-8D56-6B61B5953EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend_LMS" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,28 @@
     <sheet name="TMI Elixr Integ_LMS+Asse Eng" sheetId="3" r:id="rId4"/>
     <sheet name="Assessment Engine" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>TASKS</t>
   </si>
   <si>
     <t>TIME (in days)</t>
-  </si>
-  <si>
-    <t>Initial wireframes/mockups</t>
-  </si>
-  <si>
-    <t>Auth pages</t>
   </si>
   <si>
     <t>Super Admin - User</t>
@@ -401,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -468,19 +473,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -534,15 +657,34 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,568 +903,449 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="45.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="C28" s="32"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="39"/>
+    </row>
+    <row r="33" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="39"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="39"/>
+    </row>
+    <row r="37" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="39"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="39"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="39"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="39"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="39"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="5">
-        <v>5</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="13">
-        <f>SUM(B2:B43)</f>
-        <v>113</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1339,12 +1362,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1370,138 +1393,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5">
+    </row>
+    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <f>SUM(B2:B13)</f>
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -1539,54 +1562,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C2" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C3" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <f>SUM(C2:C3)</f>
         <v>40</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J5" s="10"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J6" s="10"/>
+      <c r="J6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,207 +1627,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="106.1796875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="48.1796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="25"/>
+    <col min="1" max="1" width="17.26953125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="106.1796875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="48.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="24">
+        <v>7</v>
+      </c>
+      <c r="E2" s="24">
+        <v>7</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="26">
+      <c r="C3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="25">
+        <v>12</v>
+      </c>
+      <c r="E3" s="24">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24">
         <v>7</v>
       </c>
-      <c r="E2" s="26">
-        <v>7</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>4</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="27">
-        <v>12</v>
-      </c>
-      <c r="E3" s="26">
-        <v>12</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26">
-        <v>7</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="25">
+        <v>15</v>
+      </c>
+      <c r="E5" s="24">
+        <v>15</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="27">
-        <v>15</v>
-      </c>
-      <c r="E5" s="26">
-        <v>15</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26" t="s">
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>5</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="26">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26" t="s">
+      <c r="D7" s="25">
+        <v>20</v>
+      </c>
+      <c r="E7" s="24">
+        <v>20</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="27">
-        <v>20</v>
-      </c>
-      <c r="E7" s="26">
-        <v>20</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <f>SUM(D2:D7)</f>
         <v>57</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <f>SUM(E2:E7)</f>
         <v>66</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
+      <c r="C12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
+++ b/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I3228\Desktop\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7AAA8-D989-42AA-8D56-6B61B5953EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394F24F-C462-4639-8BCC-8863C9948335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,9 +658,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,9 +670,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -685,6 +679,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D42"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -916,421 +916,425 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="37"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="37"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="39"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="39"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="39"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="39"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="39"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="39"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="39"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="C36:C41"/>
@@ -1341,10 +1345,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
+++ b/Indium_Software_Training_Module_Effort_Estimate (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\OneDrive\Documents\GitHub\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4B6526-D914-4C4E-8E6F-87833F6104BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8B398-3930-4E71-B9AF-FC468AA9836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>TASKS</t>
   </si>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -537,7 +537,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,19 +773,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>88</v>
       </c>
     </row>
@@ -861,14 +860,14 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -922,27 +921,27 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1138,7 +1137,7 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="5">
@@ -1199,13 +1198,15 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
@@ -1228,7 +1229,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="38"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
